--- a/data/trans_orig/P1409-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1409-Edad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>13411</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7753</v>
+        <v>7513</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21283</v>
+        <v>21055</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02952905866798056</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01707224523439979</v>
+        <v>0.01654268426954566</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04686350289565519</v>
+        <v>0.04636239669280728</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -764,19 +764,19 @@
         <v>12655</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6944</v>
+        <v>7638</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20933</v>
+        <v>20482</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02941341925128119</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0161390853793981</v>
+        <v>0.0177525980905791</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04865599500735834</v>
+        <v>0.04760738264193037</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -785,19 +785,19 @@
         <v>26065</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17433</v>
+        <v>17898</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>37411</v>
+        <v>37333</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02947280258906578</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01971261062545046</v>
+        <v>0.02023774914296906</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04230214056886898</v>
+        <v>0.04221401103765289</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>440735</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>432863</v>
+        <v>433091</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>446393</v>
+        <v>446633</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9704709413320194</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9531364971043449</v>
+        <v>0.9536376033071927</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9829277547656001</v>
+        <v>0.9834573157304543</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>408</v>
@@ -835,19 +835,19 @@
         <v>417575</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>409297</v>
+        <v>409748</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>423286</v>
+        <v>422592</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9705865807487188</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9513440049926407</v>
+        <v>0.9523926173580697</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9838609146206019</v>
+        <v>0.9822474019094211</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>840</v>
@@ -856,19 +856,19 @@
         <v>858311</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>846965</v>
+        <v>847043</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>866943</v>
+        <v>866478</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9705271974109342</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9576978594311309</v>
+        <v>0.9577859889623468</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9802873893745495</v>
+        <v>0.9797622508570304</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>13710</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7749</v>
+        <v>7967</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22560</v>
+        <v>21985</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01995318053975124</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01127837052025284</v>
+        <v>0.01159582611421897</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03283412978347112</v>
+        <v>0.03199771862227952</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -981,19 +981,19 @@
         <v>22049</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14182</v>
+        <v>14251</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>33646</v>
+        <v>34659</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03613010838717357</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02324019276849642</v>
+        <v>0.02335249305160148</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0551350434178404</v>
+        <v>0.05679359950328865</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>34</v>
@@ -1002,19 +1002,19 @@
         <v>35758</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>25714</v>
+        <v>25683</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>49833</v>
+        <v>49255</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02756262685533895</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01982048895286655</v>
+        <v>0.01979682161791861</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03841163532649604</v>
+        <v>0.03796616925188494</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>673377</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>664527</v>
+        <v>665102</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>679338</v>
+        <v>679120</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9800468194602487</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9671658702165288</v>
+        <v>0.9680022813777204</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9887216294797472</v>
+        <v>0.9884041738857811</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>551</v>
@@ -1052,19 +1052,19 @@
         <v>588206</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>576609</v>
+        <v>575596</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>596073</v>
+        <v>596004</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9638698916128264</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9448649565821596</v>
+        <v>0.9432064004967112</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9767598072315036</v>
+        <v>0.9766475069483985</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1204</v>
@@ -1073,19 +1073,19 @@
         <v>1261584</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1247509</v>
+        <v>1248087</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1271628</v>
+        <v>1271659</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9724373731446611</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9615883646735039</v>
+        <v>0.9620338307481151</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9801795110471334</v>
+        <v>0.9802031783820814</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>8992</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4435</v>
+        <v>3998</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17766</v>
+        <v>17821</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01318741289508873</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006504385795516564</v>
+        <v>0.005863920883795782</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02605552003711423</v>
+        <v>0.02613579039181197</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -1198,19 +1198,19 @@
         <v>16950</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10141</v>
+        <v>9503</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27765</v>
+        <v>27352</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02388703523303664</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01429108431486422</v>
+        <v>0.01339184319838931</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03912918210174309</v>
+        <v>0.03854745326974975</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>24</v>
@@ -1219,19 +1219,19 @@
         <v>25942</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17287</v>
+        <v>16339</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>38437</v>
+        <v>37634</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01864376990436708</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01242398859360578</v>
+        <v>0.01174243361137727</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02762370730468857</v>
+        <v>0.02704710585912536</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>672871</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>664097</v>
+        <v>664042</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>677428</v>
+        <v>677865</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9868125871049113</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9739444799628857</v>
+        <v>0.9738642096081879</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9934956142044834</v>
+        <v>0.9941360791162042</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>651</v>
@@ -1269,19 +1269,19 @@
         <v>692624</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>681809</v>
+        <v>682222</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>699433</v>
+        <v>700071</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9761129647669634</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9608708178982569</v>
+        <v>0.9614525467302503</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9857089156851359</v>
+        <v>0.9866081568016107</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1293</v>
@@ -1290,19 +1290,19 @@
         <v>1365495</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1353000</v>
+        <v>1353803</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1374150</v>
+        <v>1375098</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9813562300956329</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9723762926953113</v>
+        <v>0.9729528941408754</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9875760114063942</v>
+        <v>0.9882575663886228</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>6364</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2152</v>
+        <v>2163</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15572</v>
+        <v>15408</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01035457441849609</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003501919220807214</v>
+        <v>0.003519766021363436</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02533612819286816</v>
+        <v>0.02506930050495374</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -1415,19 +1415,19 @@
         <v>10528</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4584</v>
+        <v>4653</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20049</v>
+        <v>20002</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01713961554864683</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.00746333151008576</v>
+        <v>0.007575041767836126</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03263892545538481</v>
+        <v>0.03256262895233263</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>13</v>
@@ -1436,19 +1436,19 @@
         <v>16892</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9490</v>
+        <v>9525</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>30457</v>
+        <v>28054</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01374612094481655</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.007722822487736107</v>
+        <v>0.007750802291521823</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02478469975045357</v>
+        <v>0.0228288190640963</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>608253</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>599045</v>
+        <v>599209</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>612465</v>
+        <v>612454</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9896454255815039</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.974663871807131</v>
+        <v>0.9749306994950453</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9964980807791928</v>
+        <v>0.9964802339786365</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>530</v>
@@ -1486,19 +1486,19 @@
         <v>603736</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>594215</v>
+        <v>594262</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>609680</v>
+        <v>609611</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9828603844513532</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9673610745446152</v>
+        <v>0.9674373710476674</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9925366684899143</v>
+        <v>0.9924249582321639</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1073</v>
@@ -1507,19 +1507,19 @@
         <v>1211988</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1198423</v>
+        <v>1200826</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1219390</v>
+        <v>1219355</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9862538790551835</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9752153002495465</v>
+        <v>0.9771711809359037</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.992277177512264</v>
+        <v>0.9922491977084782</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>5243</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2010</v>
+        <v>2023</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11485</v>
+        <v>11451</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01220906158540992</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004681702382112836</v>
+        <v>0.004711056100644696</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0267457984643776</v>
+        <v>0.02666545762232512</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -1632,19 +1632,19 @@
         <v>13241</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7113</v>
+        <v>7103</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23636</v>
+        <v>23089</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02956867858537622</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01588492861094218</v>
+        <v>0.01586139219402063</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05278255822680789</v>
+        <v>0.05156193911814061</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -1653,19 +1653,19 @@
         <v>18484</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11443</v>
+        <v>11220</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>29822</v>
+        <v>30733</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02107064171461076</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01304409296910212</v>
+        <v>0.01278999566059622</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03399544382699131</v>
+        <v>0.03503464321493235</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>424186</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>417944</v>
+        <v>417978</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>427419</v>
+        <v>427406</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9877909384145901</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9732542015356224</v>
+        <v>0.9733345423776749</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9953182976178871</v>
+        <v>0.9952889438993553</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>394</v>
@@ -1703,19 +1703,19 @@
         <v>434559</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>424164</v>
+        <v>424711</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>440687</v>
+        <v>440697</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9704313214146237</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9472174417731927</v>
+        <v>0.9484380608818592</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9841150713890578</v>
+        <v>0.9841386078059793</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>782</v>
@@ -1724,19 +1724,19 @@
         <v>858745</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>847407</v>
+        <v>846496</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>865786</v>
+        <v>866009</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9789293582853892</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9660045561730087</v>
+        <v>0.9649653567850676</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9869559070308979</v>
+        <v>0.9872100043394038</v>
       </c>
     </row>
     <row r="18">
@@ -1828,19 +1828,19 @@
         <v>10266</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4348</v>
+        <v>4990</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>19187</v>
+        <v>19619</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03313879994978683</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01403431599736895</v>
+        <v>0.01610856366141107</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0619365130127655</v>
+        <v>0.06333187562843952</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -1849,19 +1849,19 @@
         <v>8869</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4010</v>
+        <v>3936</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>15698</v>
+        <v>16339</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02505381289485593</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01132736932421393</v>
+        <v>0.01111935987317218</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0443452269282296</v>
+        <v>0.04615526315757115</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>18</v>
@@ -1870,19 +1870,19 @@
         <v>19135</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>11245</v>
+        <v>11606</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>30102</v>
+        <v>29943</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02882706463389681</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01694130689072423</v>
+        <v>0.01748425934365927</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04534937082520216</v>
+        <v>0.04511000380629211</v>
       </c>
     </row>
     <row r="20">
@@ -1899,19 +1899,19 @@
         <v>299520</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>290599</v>
+        <v>290167</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>305438</v>
+        <v>304796</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9668612000502131</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9380634869872344</v>
+        <v>0.93666812437156</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9859656840026305</v>
+        <v>0.983891436338589</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>335</v>
@@ -1920,19 +1920,19 @@
         <v>345127</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>338298</v>
+        <v>337657</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>349986</v>
+        <v>350060</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.974946187105144</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9556547730717706</v>
+        <v>0.9538447368424289</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9886726306757861</v>
+        <v>0.9888806401268279</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>608</v>
@@ -1941,19 +1941,19 @@
         <v>644647</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>633680</v>
+        <v>633839</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>652537</v>
+        <v>652176</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9711729353661032</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9546506291747979</v>
+        <v>0.954889996193708</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9830586931092758</v>
+        <v>0.9825157406563407</v>
       </c>
     </row>
     <row r="21">
@@ -2045,19 +2045,19 @@
         <v>7436</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3179</v>
+        <v>3188</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14914</v>
+        <v>15916</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02976207301122618</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01272191342303262</v>
+        <v>0.01275829493212036</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05969239461619383</v>
+        <v>0.06370311994880447</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -2066,19 +2066,19 @@
         <v>11890</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6408</v>
+        <v>5508</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20842</v>
+        <v>19983</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03065936621945571</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01652314112109948</v>
+        <v>0.01420255840906586</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05374503972254534</v>
+        <v>0.05152845838778086</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>18</v>
@@ -2087,19 +2087,19 @@
         <v>19326</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>11791</v>
+        <v>11923</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>29936</v>
+        <v>29104</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03030777756739508</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01849092435932489</v>
+        <v>0.01869874599279497</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04694800375402967</v>
+        <v>0.04564345021160487</v>
       </c>
     </row>
     <row r="23">
@@ -2116,19 +2116,19 @@
         <v>242415</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>234937</v>
+        <v>233935</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>246672</v>
+        <v>246663</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9702379269887739</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9403076053838061</v>
+        <v>0.9362968800511958</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9872780865769675</v>
+        <v>0.9872417050678797</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>338</v>
@@ -2137,19 +2137,19 @@
         <v>375906</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>366954</v>
+        <v>367813</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>381388</v>
+        <v>382288</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9693406337805442</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9462549602774546</v>
+        <v>0.9484715416122191</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9834768588789005</v>
+        <v>0.9857974415909342</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>553</v>
@@ -2158,19 +2158,19 @@
         <v>618321</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>607711</v>
+        <v>608543</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>625856</v>
+        <v>625724</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9696922224326049</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9530519962459704</v>
+        <v>0.9543565497883949</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9815090756406751</v>
+        <v>0.981301254007205</v>
       </c>
     </row>
     <row r="24">
@@ -2262,19 +2262,19 @@
         <v>65421</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>51118</v>
+        <v>49826</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>82562</v>
+        <v>82406</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01909114538981749</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01491709552948997</v>
+        <v>0.01454015969614824</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02409318267194955</v>
+        <v>0.02404766709812177</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>88</v>
@@ -2283,19 +2283,19 @@
         <v>96180</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>76534</v>
+        <v>77592</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>117115</v>
+        <v>117818</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02706321689366825</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02153525465828988</v>
+        <v>0.02183268031102076</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03295389072489161</v>
+        <v>0.03315164854182196</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>151</v>
@@ -2304,19 +2304,19 @@
         <v>161602</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>138401</v>
+        <v>137532</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>188866</v>
+        <v>189031</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02314977733220051</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01982624020628889</v>
+        <v>0.019701698198475</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02705552090568639</v>
+        <v>0.02707911755402076</v>
       </c>
     </row>
     <row r="26">
@@ -2333,19 +2333,19 @@
         <v>3361358</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3344217</v>
+        <v>3344373</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3375661</v>
+        <v>3376953</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9809088546101825</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9759068173280505</v>
+        <v>0.9759523329018782</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9850829044705101</v>
+        <v>0.9854598403038518</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3207</v>
@@ -2354,19 +2354,19 @@
         <v>3457736</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3436801</v>
+        <v>3436098</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3477382</v>
+        <v>3476324</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9729367831063317</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9670461092751084</v>
+        <v>0.966848351458178</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9784647453417101</v>
+        <v>0.9781673196889792</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6353</v>
@@ -2375,19 +2375,19 @@
         <v>6819092</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6791828</v>
+        <v>6791663</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6842293</v>
+        <v>6843162</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9768502226677995</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9729444790943136</v>
+        <v>0.9729208824459792</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.980173759793711</v>
+        <v>0.9802983018015248</v>
       </c>
     </row>
     <row r="27">
@@ -2722,19 +2722,19 @@
         <v>16439</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10104</v>
+        <v>9388</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26053</v>
+        <v>25839</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0391896967561397</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02408802050211064</v>
+        <v>0.02238039577086395</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06210928856779943</v>
+        <v>0.06159982056714844</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -2743,19 +2743,19 @@
         <v>21351</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14272</v>
+        <v>13580</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31342</v>
+        <v>30706</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05394941704037778</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03606390573894737</v>
+        <v>0.03431452546920803</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07919431443136374</v>
+        <v>0.07758934877319808</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>38</v>
@@ -2764,19 +2764,19 @@
         <v>37789</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>27271</v>
+        <v>27136</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>51301</v>
+        <v>50395</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04635493738411318</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03345270601790368</v>
+        <v>0.03328689761545876</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06292881812543301</v>
+        <v>0.0618179126000139</v>
       </c>
     </row>
     <row r="5">
@@ -2793,19 +2793,19 @@
         <v>403024</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>393410</v>
+        <v>393624</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>409359</v>
+        <v>410075</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9608103032438603</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9378907114322006</v>
+        <v>0.9384001794328516</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9759119794978894</v>
+        <v>0.9776196042291361</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>382</v>
@@ -2814,19 +2814,19 @@
         <v>374404</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>364413</v>
+        <v>365049</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>381483</v>
+        <v>382175</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9460505829596222</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9208056855686364</v>
+        <v>0.922410651226802</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9639360942610528</v>
+        <v>0.9656854745307921</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>759</v>
@@ -2835,19 +2835,19 @@
         <v>777429</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>763917</v>
+        <v>764823</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>787947</v>
+        <v>788082</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9536450626158868</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9370711818745671</v>
+        <v>0.9381820873999851</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9665472939820964</v>
+        <v>0.9667131023845412</v>
       </c>
     </row>
     <row r="6">
@@ -2939,19 +2939,19 @@
         <v>16015</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9646</v>
+        <v>9290</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24980</v>
+        <v>26927</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02712187296084487</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01633463617973266</v>
+        <v>0.01573247496937219</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0423041322767965</v>
+        <v>0.04560057283714657</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -2960,19 +2960,19 @@
         <v>21306</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13708</v>
+        <v>13117</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32203</v>
+        <v>30437</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03780749140194587</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02432457557324155</v>
+        <v>0.02327665198174729</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0571440334430743</v>
+        <v>0.05400943295321356</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>38</v>
@@ -2981,19 +2981,19 @@
         <v>37322</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>27513</v>
+        <v>25845</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>52048</v>
+        <v>49668</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0323399009860344</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02384038948817562</v>
+        <v>0.02239542087485887</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04510060642430029</v>
+        <v>0.04303827438581186</v>
       </c>
     </row>
     <row r="8">
@@ -3010,19 +3010,19 @@
         <v>574481</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>565516</v>
+        <v>563569</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>580850</v>
+        <v>581206</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9728781270391551</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9576958677232034</v>
+        <v>0.9543994271628534</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9836653638202673</v>
+        <v>0.9842675250306279</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>557</v>
@@ -3031,19 +3031,19 @@
         <v>542238</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>531341</v>
+        <v>533107</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>549836</v>
+        <v>550427</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9621925085980542</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9428559665569256</v>
+        <v>0.9459905670467864</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9756754244267584</v>
+        <v>0.9767233480182528</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1108</v>
@@ -3052,19 +3052,19 @@
         <v>1116718</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1101992</v>
+        <v>1104372</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1126527</v>
+        <v>1128195</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9676600990139655</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9548993935756999</v>
+        <v>0.9569617256141881</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9761596105118249</v>
+        <v>0.9776045791251413</v>
       </c>
     </row>
     <row r="9">
@@ -3156,19 +3156,19 @@
         <v>12464</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6615</v>
+        <v>6259</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22224</v>
+        <v>21378</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0186285905689039</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009886852750385521</v>
+        <v>0.009354511246802531</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03321422477814018</v>
+        <v>0.03195044952157033</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>23</v>
@@ -3177,19 +3177,19 @@
         <v>22870</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14366</v>
+        <v>15199</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33087</v>
+        <v>35801</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03457943559428007</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02172177647420238</v>
+        <v>0.02298056016035626</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05002675100482165</v>
+        <v>0.05413001004048815</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>34</v>
@@ -3198,19 +3198,19 @@
         <v>35335</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>25124</v>
+        <v>23918</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>49517</v>
+        <v>48724</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02655779393609697</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01888338685598867</v>
+        <v>0.0179773009300333</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03721716156063765</v>
+        <v>0.03662142485374877</v>
       </c>
     </row>
     <row r="11">
@@ -3227,19 +3227,19 @@
         <v>656633</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>646873</v>
+        <v>647719</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>662482</v>
+        <v>662838</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9813714094310961</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.96678577522186</v>
+        <v>0.9680495504784307</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9901131472496147</v>
+        <v>0.9906454887531975</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>642</v>
@@ -3248,19 +3248,19 @@
         <v>638516</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>628299</v>
+        <v>625585</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>647020</v>
+        <v>646187</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9654205644057199</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9499732489951784</v>
+        <v>0.9458699899595119</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9782782235257979</v>
+        <v>0.9770194398396438</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1269</v>
@@ -3269,19 +3269,19 @@
         <v>1295148</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1280966</v>
+        <v>1281759</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1305359</v>
+        <v>1306565</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.973442206063903</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9627828384393626</v>
+        <v>0.9633785751462514</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9811166131440113</v>
+        <v>0.9820226990699669</v>
       </c>
     </row>
     <row r="12">
@@ -3373,19 +3373,19 @@
         <v>8188</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3198</v>
+        <v>3978</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16498</v>
+        <v>17290</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0126743042254946</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00494987808333274</v>
+        <v>0.006157256511710328</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02553716116408748</v>
+        <v>0.02676339710739584</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>20</v>
@@ -3394,19 +3394,19 @@
         <v>21626</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13614</v>
+        <v>14165</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>32120</v>
+        <v>33319</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03331786515154891</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02097438374628714</v>
+        <v>0.02182310096602519</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04948548471309536</v>
+        <v>0.05133357514299168</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>27</v>
@@ -3415,19 +3415,19 @@
         <v>29814</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20222</v>
+        <v>19840</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>43226</v>
+        <v>42645</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0230202220962057</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01561358927755657</v>
+        <v>0.01531897371829976</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03337563258225228</v>
+        <v>0.03292719347996729</v>
       </c>
     </row>
     <row r="14">
@@ -3444,19 +3444,19 @@
         <v>637860</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>629550</v>
+        <v>628758</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>642850</v>
+        <v>642070</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9873256957745054</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9744628388359127</v>
+        <v>0.9732366028926035</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9950501219166672</v>
+        <v>0.9938427434882896</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>582</v>
@@ -3465,19 +3465,19 @@
         <v>627451</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>616957</v>
+        <v>615758</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>635463</v>
+        <v>634912</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9666821348484511</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9505145152869047</v>
+        <v>0.9486664248570084</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9790256162537129</v>
+        <v>0.9781768990339748</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1157</v>
@@ -3486,19 +3486,19 @@
         <v>1265311</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1251899</v>
+        <v>1252480</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1274903</v>
+        <v>1275285</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9769797779037943</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9666243674177477</v>
+        <v>0.9670728065200328</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9843864107224435</v>
+        <v>0.9846810262817003</v>
       </c>
     </row>
     <row r="15">
@@ -3590,19 +3590,19 @@
         <v>12267</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6208</v>
+        <v>6750</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22338</v>
+        <v>22527</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02566673903762169</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01298930352571023</v>
+        <v>0.01412282463160003</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04673953626008525</v>
+        <v>0.04713516257673282</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -3611,19 +3611,19 @@
         <v>19596</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11945</v>
+        <v>12139</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>29729</v>
+        <v>31049</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03943995868312707</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02404054800505541</v>
+        <v>0.02443294508754556</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05983468845695716</v>
+        <v>0.06249167244424817</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>27</v>
@@ -3632,19 +3632,19 @@
         <v>31862</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>21151</v>
+        <v>20243</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>45288</v>
+        <v>46117</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03268709408425713</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02169878230079499</v>
+        <v>0.02076667064987254</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.046460588009169</v>
+        <v>0.0473107275777711</v>
       </c>
     </row>
     <row r="17">
@@ -3661,19 +3661,19 @@
         <v>465651</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>455580</v>
+        <v>455391</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>471710</v>
+        <v>471168</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9743332609623783</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9532604637399149</v>
+        <v>0.9528648374232674</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9870106964742897</v>
+        <v>0.9858771753683999</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>416</v>
@@ -3682,19 +3682,19 @@
         <v>477253</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>467120</v>
+        <v>465800</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>484904</v>
+        <v>484710</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9605600413168729</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9401653115430433</v>
+        <v>0.9375083275557522</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.975959451994945</v>
+        <v>0.9755670549124544</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>830</v>
@@ -3703,19 +3703,19 @@
         <v>942905</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>929479</v>
+        <v>928650</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>953616</v>
+        <v>954524</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9673129059157429</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.953539411990831</v>
+        <v>0.9526892724222289</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.978301217699205</v>
+        <v>0.9792333293501274</v>
       </c>
     </row>
     <row r="18">
@@ -3807,19 +3807,19 @@
         <v>5751</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1959</v>
+        <v>2006</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11733</v>
+        <v>11981</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01720007638075255</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005858503507742738</v>
+        <v>0.00599892869679724</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03509462442566508</v>
+        <v>0.03583494132918496</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>14</v>
@@ -3828,19 +3828,19 @@
         <v>14885</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8161</v>
+        <v>9034</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>23766</v>
+        <v>24051</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03940396725025795</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02160379780712732</v>
+        <v>0.02391474482018063</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06291158779956754</v>
+        <v>0.06366836255662282</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>20</v>
@@ -3849,19 +3849,19 @@
         <v>20636</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>13062</v>
+        <v>12745</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>31947</v>
+        <v>31278</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02897915304642665</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01834251965882526</v>
+        <v>0.0178982510115498</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04486423349382953</v>
+        <v>0.04392430145559807</v>
       </c>
     </row>
     <row r="20">
@@ -3878,19 +3878,19 @@
         <v>328579</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>322597</v>
+        <v>322349</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>332371</v>
+        <v>332324</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9827999236192475</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9649053755743348</v>
+        <v>0.9641650586708138</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9941414964922572</v>
+        <v>0.9940010713032027</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>340</v>
@@ -3899,19 +3899,19 @@
         <v>362877</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>353996</v>
+        <v>353711</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>369601</v>
+        <v>368728</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.960596032749742</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9370884122004326</v>
+        <v>0.9363316374433773</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9783962021928727</v>
+        <v>0.9760852551798194</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>659</v>
@@ -3920,19 +3920,19 @@
         <v>691456</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>680145</v>
+        <v>680814</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>699030</v>
+        <v>699347</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9710208469535734</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9551357665061705</v>
+        <v>0.9560756985444018</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9816574803411747</v>
+        <v>0.98210174898845</v>
       </c>
     </row>
     <row r="21">
@@ -4024,19 +4024,19 @@
         <v>15061</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9061</v>
+        <v>9336</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>23255</v>
+        <v>23702</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05860379973015729</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03525616957211095</v>
+        <v>0.03632860069074365</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09048767489570281</v>
+        <v>0.09222506023109105</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>14</v>
@@ -4045,19 +4045,19 @@
         <v>19524</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>11368</v>
+        <v>11416</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>31676</v>
+        <v>31511</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04878935859099524</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02840893435291924</v>
+        <v>0.0285271159940522</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07915533059015847</v>
+        <v>0.07874388473046123</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>32</v>
@@ -4066,19 +4066,19 @@
         <v>34585</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>23898</v>
+        <v>23737</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>49067</v>
+        <v>47244</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05262748763952089</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03636561938010702</v>
+        <v>0.0361205823567471</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07466392039789874</v>
+        <v>0.07188991888656776</v>
       </c>
     </row>
     <row r="23">
@@ -4095,19 +4095,19 @@
         <v>241937</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>233743</v>
+        <v>233296</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>247937</v>
+        <v>247662</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9413962002698427</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9095123251042966</v>
+        <v>0.9077749397689096</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9647438304278889</v>
+        <v>0.9636713993092565</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>287</v>
@@ -4116,19 +4116,19 @@
         <v>380645</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>368493</v>
+        <v>368658</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>388801</v>
+        <v>388753</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9512106414090048</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9208446694098426</v>
+        <v>0.9212561152695389</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9715910656470809</v>
+        <v>0.971472884005948</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>571</v>
@@ -4137,19 +4137,19 @@
         <v>622582</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>608100</v>
+        <v>609923</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>633269</v>
+        <v>633430</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9473725123604791</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9253360796021016</v>
+        <v>0.9281100811134322</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.963634380619893</v>
+        <v>0.9638794176432525</v>
       </c>
     </row>
     <row r="24">
@@ -4241,19 +4241,19 @@
         <v>86185</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>69308</v>
+        <v>69671</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>108509</v>
+        <v>107655</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02539062987196886</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02041850189370339</v>
+        <v>0.02052567734377058</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03196767718547255</v>
+        <v>0.03171602182381973</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>132</v>
@@ -4262,19 +4262,19 @@
         <v>141158</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>119101</v>
+        <v>117940</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>167275</v>
+        <v>165669</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0398240914492156</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03360114364093895</v>
+        <v>0.03327379597781951</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04719236571803469</v>
+        <v>0.04673919134036895</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>216</v>
@@ -4283,19 +4283,19 @@
         <v>227343</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>199396</v>
+        <v>196615</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>260353</v>
+        <v>260974</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03276356610283877</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02873603704342532</v>
+        <v>0.02833518751906267</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03752083387129256</v>
+        <v>0.03761029370955254</v>
       </c>
     </row>
     <row r="26">
@@ -4312,19 +4312,19 @@
         <v>3308165</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3285841</v>
+        <v>3286695</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3325042</v>
+        <v>3324679</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9746093701280312</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9680323228145272</v>
+        <v>0.9682839781761803</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9795814981062966</v>
+        <v>0.9794743226562294</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3206</v>
@@ -4333,19 +4333,19 @@
         <v>3403384</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3377267</v>
+        <v>3378873</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3425441</v>
+        <v>3426602</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9601759085507844</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9528076342819651</v>
+        <v>0.953260808659631</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9663988563590609</v>
+        <v>0.9667262040221805</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6353</v>
@@ -4354,19 +4354,19 @@
         <v>6711549</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6678539</v>
+        <v>6677918</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6739496</v>
+        <v>6742277</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9672364338971612</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9624791661287074</v>
+        <v>0.9623897062904474</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9712639629565746</v>
+        <v>0.9716648124809373</v>
       </c>
     </row>
     <row r="27">
@@ -4701,19 +4701,19 @@
         <v>23886</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10291</v>
+        <v>10848</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45346</v>
+        <v>46400</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05857326711266773</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02523545289527615</v>
+        <v>0.02660193339615891</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1111983023466328</v>
+        <v>0.1137820965641452</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -4722,19 +4722,19 @@
         <v>8807</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3140</v>
+        <v>3188</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19338</v>
+        <v>19869</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02429494033077062</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008661989650251563</v>
+        <v>0.008793473858315378</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05334457193193976</v>
+        <v>0.05480911401253138</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -4743,19 +4743,19 @@
         <v>32693</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17491</v>
+        <v>16358</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>56996</v>
+        <v>54965</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04244160065159782</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02270606437336758</v>
+        <v>0.0212356098893782</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07399132017499982</v>
+        <v>0.07135448692984539</v>
       </c>
     </row>
     <row r="5">
@@ -4772,19 +4772,19 @@
         <v>383907</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>362447</v>
+        <v>361393</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>397502</v>
+        <v>396945</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9414267328873324</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8888016976533673</v>
+        <v>0.8862179034358549</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9747645471047243</v>
+        <v>0.9733980666038414</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>202</v>
@@ -4793,19 +4793,19 @@
         <v>353705</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>343174</v>
+        <v>342643</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>359372</v>
+        <v>359324</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9757050596692293</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9466554280680605</v>
+        <v>0.9451908859874686</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9913380103497486</v>
+        <v>0.9912065261416846</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>366</v>
@@ -4814,19 +4814,19 @@
         <v>737612</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>713309</v>
+        <v>715340</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>752814</v>
+        <v>753947</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9575583993484023</v>
+        <v>0.9575583993484021</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9260086798250007</v>
+        <v>0.9286455130701545</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9772939356266326</v>
+        <v>0.9787643901106218</v>
       </c>
     </row>
     <row r="6">
@@ -4918,19 +4918,19 @@
         <v>29225</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18658</v>
+        <v>18202</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>44464</v>
+        <v>45618</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.06128218089245076</v>
+        <v>0.06128218089245075</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03912525790350449</v>
+        <v>0.03816872312096362</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09323739758504254</v>
+        <v>0.09565684378233855</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -4939,19 +4939,19 @@
         <v>20753</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12932</v>
+        <v>13432</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30035</v>
+        <v>30603</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04141590878450063</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02580852085817728</v>
+        <v>0.0268064417128526</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05994062771225713</v>
+        <v>0.06107377226595271</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>41</v>
@@ -4960,19 +4960,19 @@
         <v>49978</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>36538</v>
+        <v>35779</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>67875</v>
+        <v>64608</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.05110332176217707</v>
+        <v>0.05110332176217708</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03736061011632031</v>
+        <v>0.0365850344541855</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.069403734403332</v>
+        <v>0.0660634740078704</v>
       </c>
     </row>
     <row r="8">
@@ -4989,19 +4989,19 @@
         <v>447665</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>432426</v>
+        <v>431272</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>458232</v>
+        <v>458688</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9387178191075491</v>
+        <v>0.9387178191075494</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9067626024149573</v>
+        <v>0.9043431562176609</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9608747420964955</v>
+        <v>0.9618312768790364</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>439</v>
@@ -5010,19 +5010,19 @@
         <v>480330</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>471048</v>
+        <v>470480</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>488151</v>
+        <v>487651</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9585840912154993</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9400593722877429</v>
+        <v>0.9389262277340473</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9741914791418227</v>
+        <v>0.9731935582871475</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>721</v>
@@ -5031,19 +5031,19 @@
         <v>927995</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>910098</v>
+        <v>913365</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>941435</v>
+        <v>942194</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9488966782378229</v>
+        <v>0.9488966782378228</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9305962655966683</v>
+        <v>0.9339365259921295</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9626393898836798</v>
+        <v>0.9634149655458142</v>
       </c>
     </row>
     <row r="9">
@@ -5135,19 +5135,19 @@
         <v>24072</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15779</v>
+        <v>15515</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36114</v>
+        <v>35982</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03886169375421927</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0254726081186727</v>
+        <v>0.02504666841834531</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05830046889099635</v>
+        <v>0.05808764080512015</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>39</v>
@@ -5156,19 +5156,19 @@
         <v>28213</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19785</v>
+        <v>20469</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37913</v>
+        <v>38657</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.04539638008205444</v>
+        <v>0.04539638008205445</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03183555768378005</v>
+        <v>0.03293569704257181</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06100348453240864</v>
+        <v>0.06220038251542888</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>59</v>
@@ -5177,19 +5177,19 @@
         <v>52286</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>40127</v>
+        <v>40125</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>65937</v>
+        <v>66551</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.04213443408856406</v>
+        <v>0.04213443408856407</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03233610267553383</v>
+        <v>0.03233452159577637</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05313511317979776</v>
+        <v>0.05362976285465437</v>
       </c>
     </row>
     <row r="11">
@@ -5206,19 +5206,19 @@
         <v>595366</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>583324</v>
+        <v>583456</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>603659</v>
+        <v>603923</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9611383062457807</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9416995311090047</v>
+        <v>0.94191235919488</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9745273918813275</v>
+        <v>0.9749533315816549</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>806</v>
@@ -5227,19 +5227,19 @@
         <v>593275</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>583575</v>
+        <v>582831</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>601703</v>
+        <v>601019</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9546036199179455</v>
+        <v>0.9546036199179456</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9389965154675914</v>
+        <v>0.9377996174845711</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9681644423162201</v>
+        <v>0.967064302957428</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1331</v>
@@ -5248,19 +5248,19 @@
         <v>1188640</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1174989</v>
+        <v>1174375</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1200799</v>
+        <v>1200801</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9578655659114358</v>
+        <v>0.9578655659114361</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9468648868202021</v>
+        <v>0.9463702371453452</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9676638973244661</v>
+        <v>0.9676654784042237</v>
       </c>
     </row>
     <row r="12">
@@ -5352,19 +5352,19 @@
         <v>21269</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13735</v>
+        <v>13880</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>32979</v>
+        <v>31766</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.03035721857141699</v>
+        <v>0.03035721857141698</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01960433706684838</v>
+        <v>0.01981158016771341</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04707093196349291</v>
+        <v>0.04533933777809697</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>63</v>
@@ -5373,19 +5373,19 @@
         <v>41618</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>32915</v>
+        <v>32684</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>52618</v>
+        <v>52555</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05654311587310706</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04471930264177502</v>
+        <v>0.0444052328130425</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07148821456177885</v>
+        <v>0.07140204485568186</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>83</v>
@@ -5394,19 +5394,19 @@
         <v>62887</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>49870</v>
+        <v>50712</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>77194</v>
+        <v>79025</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0437729964562577</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03471242744458299</v>
+        <v>0.0352988461690399</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05373158279008805</v>
+        <v>0.05500639567561547</v>
       </c>
     </row>
     <row r="14">
@@ -5423,19 +5423,19 @@
         <v>679348</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>667638</v>
+        <v>668851</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>686882</v>
+        <v>686737</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9696427814285832</v>
+        <v>0.969642781428583</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9529290680365073</v>
+        <v>0.9546606622219035</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9803956629331519</v>
+        <v>0.9801884198322866</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1076</v>
@@ -5444,19 +5444,19 @@
         <v>694423</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>683423</v>
+        <v>683486</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>703126</v>
+        <v>703357</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9434568841268928</v>
+        <v>0.943456884126893</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9285117854382211</v>
+        <v>0.9285979551443183</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9552806973582251</v>
+        <v>0.9555947671869576</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1721</v>
@@ -5465,19 +5465,19 @@
         <v>1373771</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1359464</v>
+        <v>1357633</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1386788</v>
+        <v>1385946</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9562270035437423</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9462684172099115</v>
+        <v>0.9449936043243847</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9652875725554171</v>
+        <v>0.96470115383096</v>
       </c>
     </row>
     <row r="15">
@@ -5569,19 +5569,19 @@
         <v>16223</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9695</v>
+        <v>9530</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23776</v>
+        <v>24819</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.02671104819991078</v>
+        <v>0.02671104819991077</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01596299144875664</v>
+        <v>0.01569125366167917</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03914663519730469</v>
+        <v>0.04086354965407107</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>45</v>
@@ -5590,19 +5590,19 @@
         <v>27966</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>21022</v>
+        <v>20059</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>36779</v>
+        <v>37037</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04614233981254318</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03468617865633001</v>
+        <v>0.03309708381401182</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06068328962680251</v>
+        <v>0.06110969561734166</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>63</v>
@@ -5611,19 +5611,19 @@
         <v>44189</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>33856</v>
+        <v>34416</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>55440</v>
+        <v>56808</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03641633705025253</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0279007294378528</v>
+        <v>0.02836216011940805</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04568843448179354</v>
+        <v>0.04681576004915577</v>
       </c>
     </row>
     <row r="17">
@@ -5640,19 +5640,19 @@
         <v>591146</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>583593</v>
+        <v>582550</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>597674</v>
+        <v>597839</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9732889518000892</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9608533648026948</v>
+        <v>0.9591364503459289</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9840370085512435</v>
+        <v>0.9843087463383208</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>953</v>
@@ -5661,19 +5661,19 @@
         <v>578110</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>569297</v>
+        <v>569039</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>585054</v>
+        <v>586017</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9538576601874569</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9393167103731975</v>
+        <v>0.9388903043826585</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9653138213436701</v>
+        <v>0.9669029161859884</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1596</v>
@@ -5682,19 +5682,19 @@
         <v>1169256</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1158005</v>
+        <v>1156637</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1179589</v>
+        <v>1179029</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9635836629497475</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9543115655182066</v>
+        <v>0.9531842399508446</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9720992705621472</v>
+        <v>0.9716378398805919</v>
       </c>
     </row>
     <row r="18">
@@ -5786,19 +5786,19 @@
         <v>11643</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7056</v>
+        <v>7278</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18507</v>
+        <v>19378</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.02866298800552208</v>
+        <v>0.02866298800552207</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01737139720965348</v>
+        <v>0.01791787482081523</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04556037472633347</v>
+        <v>0.04770437720094267</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>38</v>
@@ -5807,19 +5807,19 @@
         <v>21114</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>15214</v>
+        <v>15771</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>28584</v>
+        <v>28677</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04820256401463784</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03473345626049874</v>
+        <v>0.03600430998720121</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06525725233455065</v>
+        <v>0.0654694418396988</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>56</v>
@@ -5828,19 +5828,19 @@
         <v>32757</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>25253</v>
+        <v>25721</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>43274</v>
+        <v>43182</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.03880087415186847</v>
+        <v>0.03880087415186848</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02991192376861062</v>
+        <v>0.03046621578891143</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05125800510735624</v>
+        <v>0.05114968487967523</v>
       </c>
     </row>
     <row r="20">
@@ -5857,19 +5857,19 @@
         <v>394568</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>387704</v>
+        <v>386833</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>399155</v>
+        <v>398933</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9713370119944781</v>
+        <v>0.971337011994478</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.954439625273668</v>
+        <v>0.9522956227990582</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9826286027903467</v>
+        <v>0.9820821251791851</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>787</v>
@@ -5878,19 +5878,19 @@
         <v>416906</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>409436</v>
+        <v>409343</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>422806</v>
+        <v>422249</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9517974359853624</v>
+        <v>0.9517974359853622</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9347427476654494</v>
+        <v>0.9345305581603014</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9652665437395012</v>
+        <v>0.9639956900127989</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1338</v>
@@ -5899,19 +5899,19 @@
         <v>811474</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>800957</v>
+        <v>801049</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>818978</v>
+        <v>818510</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9611991258481315</v>
+        <v>0.9611991258481318</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.948741994892644</v>
+        <v>0.9488503151203252</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9700880762313898</v>
+        <v>0.9695337842110887</v>
       </c>
     </row>
     <row r="21">
@@ -6003,19 +6003,19 @@
         <v>9563</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5645</v>
+        <v>5280</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15675</v>
+        <v>16054</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03082730221941542</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01819677761067073</v>
+        <v>0.0170222053614288</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05053113152594502</v>
+        <v>0.05175366327574833</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>56</v>
@@ -6024,19 +6024,19 @@
         <v>29226</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>21553</v>
+        <v>22372</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>38129</v>
+        <v>38520</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.06295800693324445</v>
+        <v>0.06295800693324444</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04642951529501167</v>
+        <v>0.04819323219348259</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08213846631414685</v>
+        <v>0.08298018058153805</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>71</v>
@@ -6045,19 +6045,19 @@
         <v>38788</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>30691</v>
+        <v>30175</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>49536</v>
+        <v>48590</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.05008764727707164</v>
+        <v>0.05008764727707163</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03963099505635238</v>
+        <v>0.03896569561288907</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06396662075250527</v>
+        <v>0.06274463988199579</v>
       </c>
     </row>
     <row r="23">
@@ -6074,19 +6074,19 @@
         <v>300635</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>294523</v>
+        <v>294144</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>304553</v>
+        <v>304918</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9691726977805847</v>
+        <v>0.9691726977805845</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9494688684740551</v>
+        <v>0.9482463367242517</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9818032223893293</v>
+        <v>0.982977794638571</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>824</v>
@@ -6095,19 +6095,19 @@
         <v>434982</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>426079</v>
+        <v>425688</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>442655</v>
+        <v>441836</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9370419930667555</v>
+        <v>0.9370419930667554</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9178615336858532</v>
+        <v>0.9170198194184617</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9535704847049883</v>
+        <v>0.9518067678065173</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1267</v>
@@ -6116,19 +6116,19 @@
         <v>735619</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>724871</v>
+        <v>725817</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>743716</v>
+        <v>744232</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9499123527229282</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9360333792474946</v>
+        <v>0.9372553601180043</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9603690049436476</v>
+        <v>0.961034304387111</v>
       </c>
     </row>
     <row r="24">
@@ -6220,19 +6220,19 @@
         <v>135881</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>110526</v>
+        <v>110783</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>167052</v>
+        <v>167679</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03850941067902774</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03132366422865277</v>
+        <v>0.03139640622144587</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04734336112947959</v>
+        <v>0.04752107556135166</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>267</v>
@@ -6241,19 +6241,19 @@
         <v>177696</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>157873</v>
+        <v>157486</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>202971</v>
+        <v>202811</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.04764710036468307</v>
+        <v>0.04764710036468306</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04233177123261193</v>
+        <v>0.04222792475395597</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05442422434849485</v>
+        <v>0.05438116627672087</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>386</v>
@@ -6262,19 +6262,19 @@
         <v>313578</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>281923</v>
+        <v>281372</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>352221</v>
+        <v>348997</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.04320472712868246</v>
+        <v>0.04320472712868245</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03884336123399579</v>
+        <v>0.03876746204680678</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04852896017608707</v>
+        <v>0.04808480943010211</v>
       </c>
     </row>
     <row r="26">
@@ -6291,19 +6291,19 @@
         <v>3392637</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3361466</v>
+        <v>3360839</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3417992</v>
+        <v>3417735</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9614905893209724</v>
+        <v>0.9614905893209722</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9526566388705204</v>
+        <v>0.9524789244386477</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9686763357713473</v>
+        <v>0.9686035937785542</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5087</v>
@@ -6312,19 +6312,19 @@
         <v>3551731</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3526456</v>
+        <v>3526616</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3571554</v>
+        <v>3571941</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.952352899635317</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9455757756515052</v>
+        <v>0.9456188337232787</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9576682287673879</v>
+        <v>0.9577720752460438</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8340</v>
@@ -6333,19 +6333,19 @@
         <v>6944367</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6905724</v>
+        <v>6908948</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6976022</v>
+        <v>6976573</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9567952728713177</v>
+        <v>0.9567952728713174</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9514710398239129</v>
+        <v>0.9519151905698977</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9611566387660039</v>
+        <v>0.9612325379531931</v>
       </c>
     </row>
     <row r="27">
